--- a/biology/Histoire de la zoologie et de la botanique/Govard_Bidloo/Govard_Bidloo.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Govard_Bidloo/Govard_Bidloo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Govert Bidloo ou Govard Bidloo (12 mars 1649 à Amsterdam - 30 mars 1713 à Leyde), est un médecin, un anatomiste, un poète et un auteur dramatique néerlandais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un pharmacien d'Amsterdam, Bidloo étudie d'abord la chirurgie et devient, en 1670, l'élève de l'anatomiste Frederik Ruysch. Il étudie ensuite la médecine à l'université de Franeker, dont il sort diplômé en 1682.
 En 1685, il publie un traité d'anatomie, Anatomia Humani Corporis (Ontleding des menschelyken lichaams en néerlandais). Ce traité est illustré de 105 planches gravées par Abraham Bloteling, d'après les dessins de Gérard de Lairesse, et montre le corps humain vivant ou disséqué. L'ouvrage est plagié en 1690 par le chirurgien anglais William Cowper dans Anatomy of the Humane Bodies (1698), sans qu'aucune référence ne soit faite à l'original, ce qui conduit à un échange de lettres et de pamphlets acerbes entre les deux hommes.
@@ -548,7 +562,9 @@
           <t>Œuvres et travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Govard Bidloo, Anatomia Humani Corporis, Amsterdam, 1685, 105 planches dessinées par Gérard de Lairesse. – En ligne sur le site de l'Universitätsbibliothek Heidelberg.</t>
         </is>
